--- a/Documentacion/Otros/Cronograma_v4.0.xlsx
+++ b/Documentacion/Otros/Cronograma_v4.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Lucas\UTN\Informatica 2\TPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Lucas\UTN\Informatica 2\TPO\Github\Gimbal\Documentacion\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7E20AC-13E6-47B3-B580-7C479A41F4DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A630A3-4962-46BB-B27F-2AD6E3C00E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="151">
   <si>
     <t>Nro tarea</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t xml:space="preserve">               └ ¿Cómo funciona un sistema de estimación de Actitud?</t>
+  </si>
+  <si>
+    <t>¿Hecho?</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -797,12 +803,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,6 +825,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,23 +1152,23 @@
   </sheetPr>
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="9"/>
     <col min="2" max="2" width="57.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="9" customWidth="1"/>
     <col min="5" max="6" width="14.42578125" style="9"/>
     <col min="7" max="7" width="18.85546875" style="9" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1190,8 +1196,11 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J1" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1213,8 +1222,9 @@
         <v>14</v>
       </c>
       <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1238,8 +1248,9 @@
         <v>126</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1263,8 +1274,9 @@
         <v>126</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1288,8 +1300,9 @@
         <v>127</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1313,8 +1326,9 @@
         <v>127</v>
       </c>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>6</v>
       </c>
@@ -1325,21 +1339,22 @@
       <c r="D7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="45">
         <v>43608</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="45">
         <v>43622</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="46" t="s">
         <v>136</v>
       </c>
       <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="41"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1363,33 +1378,37 @@
         <v>128</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49">
+      <c r="J8" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47">
         <v>8</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="51">
+      <c r="C9" s="47"/>
+      <c r="D9" s="49">
         <v>6</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="50">
         <v>43608</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="51">
         <v>43621</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="47"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1413,8 +1432,9 @@
         <v>129</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1431,15 +1451,18 @@
       <c r="F11" s="36">
         <v>43619</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="53" t="s">
         <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>133</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1452,13 +1475,16 @@
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="2" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1482,8 +1508,9 @@
         <v>129</v>
       </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1507,8 +1534,9 @@
         <v>140</v>
       </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1532,8 +1560,11 @@
         <v>129</v>
       </c>
       <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1559,6 +1590,9 @@
         <v>129</v>
       </c>
       <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1586,6 +1620,9 @@
       <c r="I17" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="J17" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1611,6 +1648,7 @@
         <v>134</v>
       </c>
       <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1636,6 +1674,7 @@
         <v>134</v>
       </c>
       <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1661,7 +1700,9 @@
         <v>130</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1692,6 +1733,7 @@
       <c r="I21" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
@@ -1715,6 +1757,7 @@
       <c r="I22" s="19" t="s">
         <v>53</v>
       </c>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
@@ -1736,6 +1779,7 @@
         <v>132</v>
       </c>
       <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1761,6 +1805,9 @@
         <v>130</v>
       </c>
       <c r="I24" s="8"/>
+      <c r="J24" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1790,6 +1837,9 @@
       <c r="I25" s="8" t="s">
         <v>145</v>
       </c>
+      <c r="J25" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44">
@@ -1819,6 +1869,9 @@
       <c r="I26" s="41" t="s">
         <v>145</v>
       </c>
+      <c r="J26" s="41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1848,6 +1901,9 @@
       <c r="I27" s="8" t="s">
         <v>145</v>
       </c>
+      <c r="J27" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1877,6 +1933,9 @@
       <c r="I28" s="8" t="s">
         <v>145</v>
       </c>
+      <c r="J28" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1906,6 +1965,9 @@
       <c r="I29" s="8" t="s">
         <v>145</v>
       </c>
+      <c r="J29" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1933,6 +1995,9 @@
         <v>128</v>
       </c>
       <c r="I30" s="8"/>
+      <c r="J30" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -1960,6 +2025,9 @@
         <v>130</v>
       </c>
       <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44">
@@ -1989,8 +2057,11 @@
       <c r="I32" s="42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2018,8 +2089,11 @@
       <c r="I33" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2047,8 +2121,9 @@
       <c r="I34" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2076,8 +2151,9 @@
       <c r="I35" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2103,8 +2179,11 @@
       <c r="I36" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2132,8 +2211,9 @@
       <c r="I37" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2161,8 +2241,9 @@
       <c r="I38" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -2182,8 +2263,9 @@
         <v>135</v>
       </c>
       <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2203,8 +2285,11 @@
         <v>141</v>
       </c>
       <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2224,8 +2309,11 @@
         <v>136</v>
       </c>
       <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2245,8 +2333,9 @@
         <v>141</v>
       </c>
       <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2268,8 +2357,9 @@
       <c r="I43" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -2289,8 +2379,9 @@
         <v>126</v>
       </c>
       <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2310,8 +2401,11 @@
         <v>126</v>
       </c>
       <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2331,8 +2425,9 @@
         <v>126</v>
       </c>
       <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2352,8 +2447,9 @@
         <v>134</v>
       </c>
       <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2375,8 +2471,9 @@
       <c r="I48" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -2398,8 +2495,9 @@
         <v>14</v>
       </c>
       <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2419,8 +2517,11 @@
         <v>137</v>
       </c>
       <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2440,8 +2541,11 @@
         <v>137</v>
       </c>
       <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2461,8 +2565,9 @@
         <v>136</v>
       </c>
       <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2482,8 +2587,9 @@
         <v>142</v>
       </c>
       <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2503,8 +2609,9 @@
         <v>143</v>
       </c>
       <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2524,8 +2631,9 @@
         <v>138</v>
       </c>
       <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2547,8 +2655,9 @@
       <c r="I56" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2568,8 +2677,9 @@
         <v>134</v>
       </c>
       <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2591,8 +2701,9 @@
       <c r="I58" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2614,8 +2725,9 @@
       <c r="I59" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -2639,8 +2751,9 @@
       <c r="I60" s="27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -2664,8 +2777,9 @@
       <c r="I61" s="19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -2689,8 +2803,9 @@
       <c r="I62" s="19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -2714,8 +2829,9 @@
       <c r="I63" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
       <c r="B64" s="13"/>
       <c r="C64" s="24"/>
